--- a/figures_for_papers/results_summary.xlsx
+++ b/figures_for_papers/results_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhua/Documents/power-lab-china-re-repo/CellReports_NDC_submission/CellReports_NDC_2025/figures_for_papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2FDF1-9DCE-734B-A7D7-349E2486689C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32041123-FE24-0140-85E2-5E110409D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-8660" windowWidth="33560" windowHeight="28300" activeTab="2" xr2:uid="{28077EE6-475A-744A-9BAA-38C2B949F03D}"/>
+    <workbookView xWindow="30040" yWindow="-13400" windowWidth="33580" windowHeight="28300" xr2:uid="{28077EE6-475A-744A-9BAA-38C2B949F03D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cap_GW" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="112">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -117,27 +117,6 @@
   </si>
   <si>
     <t>c5</t>
-  </si>
-  <si>
-    <t>l1_ccs</t>
-  </si>
-  <si>
-    <t>l1_chp</t>
-  </si>
-  <si>
-    <t>l1_unabated</t>
-  </si>
-  <si>
-    <t>l4_ccs</t>
-  </si>
-  <si>
-    <t>l4_unabated</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l3</t>
   </si>
   <si>
     <t>wind</t>
@@ -284,9 +263,6 @@
     <t>wind_gw</t>
   </si>
   <si>
-    <t>fossil GW%</t>
-  </si>
-  <si>
     <t>A3: Low Wind Costs</t>
   </si>
   <si>
@@ -323,31 +299,10 @@
     <t>B5: 2035-3.3% Demand</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>Upper</t>
   </si>
   <si>
-    <t>W+S GW</t>
-  </si>
-  <si>
-    <t>renewable GW</t>
-  </si>
-  <si>
-    <t>W+S gen%</t>
-  </si>
-  <si>
     <t>Baseline C -- More Ambitious 2C, 12.5 PWh@2030</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>coal GW</t>
   </si>
   <si>
     <t>A1: Reference Renewable Costs</t>
@@ -386,13 +341,40 @@
     <t>c1_wy19</t>
   </si>
   <si>
-    <t>coal_run_hrs_2035</t>
+    <t>Wind and Solar Capacity (GW)</t>
   </si>
   <si>
-    <t>coal_gw_2035</t>
+    <t>Wind and Solar Generation Share (%)</t>
   </si>
   <si>
-    <t>coal_gen_twh_2035</t>
+    <t>Scenario name</t>
+  </si>
+  <si>
+    <t>2030 results</t>
+  </si>
+  <si>
+    <t>2035 results</t>
+  </si>
+  <si>
+    <t>coal_ccs</t>
+  </si>
+  <si>
+    <t>coal_chp</t>
+  </si>
+  <si>
+    <t>coal_unabated</t>
+  </si>
+  <si>
+    <t>gas_ccs</t>
+  </si>
+  <si>
+    <t>gas_unabated</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>nuclear</t>
   </si>
 </sst>
 </file>
@@ -404,7 +386,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -452,12 +434,6 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -480,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -491,12 +467,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -506,7 +478,6 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,9 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A17B89-7A64-3340-AB9B-A101A81CBA80}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -854,84 +823,84 @@
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="20" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:30" s="16" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="20" t="s">
+      <c r="V1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="20" t="s">
+      <c r="AA1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -1254,9 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730EABB8-9849-EF4D-A56B-4E8E34C64905}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1265,87 +1232,87 @@
     <col min="9" max="9" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="20" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:31" s="16" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="20" t="s">
+      <c r="W1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="20" t="s">
+      <c r="AB1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -1456,74 +1423,74 @@
       <c r="A8">
         <v>2030</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0.24259536159814801</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.17564352706670899</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.123607646003492</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>8.7428769736303397E-2</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>1.9628006399999901E-2</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="13">
         <v>0.43563400719426398</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="13">
         <v>0.43563400719426398</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="13">
         <v>0.43565685291599898</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="13">
         <v>0.43565685291599898</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AA8" s="13">
         <v>0.43565685291599898</v>
       </c>
-      <c r="AB8" s="17">
+      <c r="AB8" s="13">
         <v>0.43565685291599898</v>
       </c>
     </row>
@@ -1531,65 +1498,65 @@
       <c r="A9">
         <v>2035</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>0.31451604925013898</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>0.18185974275606501</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0.12067071324967001</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.11310199241809001</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <v>0.49637579200620502</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="13">
         <v>0.49601582674729899</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="13">
         <v>0.49679796460627601</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="13">
         <v>0.49640099168513202</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="13">
         <v>0.54398646798044303</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="13">
         <v>0.54889171553266403</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="13">
         <v>0.54872330239357503</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="13">
         <v>0.54885437364064005</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="13">
         <v>0.54892745717276403</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="13">
         <v>0.53254815749324302</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="13">
         <v>0.52359735752615799</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="13">
         <v>0.52325897082961703</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="13">
         <v>0.52386861693389397</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="13">
         <v>0.52357383130434998</v>
       </c>
-      <c r="AB9" s="17">
+      <c r="AB9" s="13">
         <v>0.56971746916446697</v>
       </c>
     </row>
@@ -1648,11 +1615,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A25A3CF-99D4-BE4F-BA4E-8801D9AA3ED4}">
-  <dimension ref="A1:AT61"/>
+  <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="143" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1660,6 +1625,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1706,36 +1674,36 @@
         <v>25</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>2030</v>
@@ -1872,7 +1840,7 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>12.5</v>
@@ -2009,7 +1977,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -2146,7 +2114,7 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>4.39455113</v>
@@ -2283,7 +2251,7 @@
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2420,7 +2388,7 @@
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2557,7 +2525,7 @@
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>5.6939999999999998E-2</v>
@@ -2694,7 +2662,7 @@
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2831,7 +2799,7 @@
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -2968,7 +2936,7 @@
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1225.6099999999999</v>
@@ -3105,7 +3073,7 @@
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3242,7 +3210,7 @@
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3379,7 +3347,7 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -3516,7 +3484,7 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3653,7 +3621,7 @@
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3790,7 +3758,7 @@
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>35.01</v>
@@ -3927,7 +3895,7 @@
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>434.98</v>
@@ -4064,7 +4032,7 @@
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>125.019999999999</v>
@@ -4201,7 +4169,7 @@
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -4338,7 +4306,7 @@
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>896.33244729900696</v>
@@ -4475,7 +4443,7 @@
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>109.000019752119</v>
@@ -4612,7 +4580,7 @@
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>872.73206921999997</v>
@@ -4749,7 +4717,7 @@
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>468.000364259999</v>
@@ -4886,7 +4854,7 @@
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>86.42</v>
@@ -5023,7 +4991,7 @@
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>153.99</v>
@@ -5160,7 +5128,7 @@
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5297,7 +5265,7 @@
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5434,7 +5402,7 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -5571,7 +5539,7 @@
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>826.25</v>
@@ -5708,7 +5676,7 @@
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>224.9</v>
@@ -5845,7 +5813,7 @@
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>1051.1500000000001</v>
@@ -5982,7 +5950,7 @@
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -6119,7 +6087,7 @@
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B34">
         <v>0.35611929039999901</v>
@@ -6256,7 +6224,7 @@
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>2346.0649005311202</v>
@@ -6393,7 +6361,7 @@
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>240.409999999999</v>
@@ -6530,7 +6498,7 @@
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B37">
         <v>1340.7324334800001</v>
@@ -6667,7 +6635,7 @@
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B38">
         <v>1005.33246705112</v>
@@ -6804,679 +6772,229 @@
     </row>
     <row r="39" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="12">
+        <v>91</v>
+      </c>
+      <c r="B39" s="11">
         <f>(B11+B14)/SUM(B11:B28)</f>
         <v>0.29878369964033785</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11">
         <f t="shared" ref="D39:AD39" si="0">(D11+D14)/SUM(D11:D28)</f>
         <v>0.29878369964033785</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11">
         <f t="shared" si="0"/>
         <v>0.29878369964033785</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12">
+      <c r="G39" s="11"/>
+      <c r="H39" s="11">
         <f t="shared" si="0"/>
         <v>0.29878369964033785</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12">
+      <c r="I39" s="11"/>
+      <c r="J39" s="11">
         <f t="shared" si="0"/>
         <v>0.29878369964033785</v>
       </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12">
+      <c r="K39" s="11"/>
+      <c r="L39" s="11">
         <f t="shared" si="0"/>
         <v>0.27288780363292886</v>
       </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12">
+      <c r="M39" s="11"/>
+      <c r="N39" s="11">
         <f t="shared" si="0"/>
         <v>0.27288780363292886</v>
       </c>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12">
+      <c r="O39" s="11"/>
+      <c r="P39" s="11">
         <f t="shared" si="0"/>
         <v>0.27288780363292886</v>
       </c>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12">
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11">
         <f t="shared" si="0"/>
         <v>0.27288780363292886</v>
       </c>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12">
+      <c r="S39" s="11"/>
+      <c r="T39" s="11">
         <f t="shared" si="0"/>
         <v>0.27288780363292886</v>
       </c>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12">
+      <c r="U39" s="11"/>
+      <c r="V39" s="11">
         <f t="shared" si="0"/>
         <v>0.29336702966297223</v>
       </c>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12">
+      <c r="W39" s="11"/>
+      <c r="X39" s="11">
         <f t="shared" si="0"/>
         <v>0.2933109266448552</v>
       </c>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12">
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11">
         <f t="shared" si="0"/>
         <v>0.2933109266448552</v>
       </c>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12">
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11">
         <f t="shared" si="0"/>
         <v>0.2933109266448552</v>
       </c>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12">
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11">
         <f t="shared" si="0"/>
         <v>0.2933109266448552</v>
       </c>
-      <c r="AE39" s="12"/>
-      <c r="AG39" s="12">
+      <c r="AE39" s="11"/>
+      <c r="AG39" s="11">
         <f t="shared" ref="AG39:AI39" si="1">(AG11+AG14)/SUM(AG11:AG28)</f>
         <v>0.29338410991214753</v>
       </c>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12">
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11">
         <f t="shared" si="1"/>
         <v>0.29338410991214753</v>
       </c>
-      <c r="AJ39" s="12"/>
-      <c r="AK39" s="12">
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11">
         <f t="shared" ref="AK39" si="2">(AK11+AK14)/SUM(AK11:AK28)</f>
         <v>0.29338410991214753</v>
       </c>
-      <c r="AL39" s="12"/>
-      <c r="AM39" s="12">
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11">
         <f t="shared" ref="AM39" si="3">(AM11+AM14)/SUM(AM11:AM28)</f>
         <v>0.29338410991214753</v>
       </c>
-      <c r="AN39" s="12"/>
-      <c r="AO39" s="12">
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11">
         <f t="shared" ref="AO39" si="4">(AO11+AO14)/SUM(AO11:AO28)</f>
         <v>0.29338410991214753</v>
       </c>
-      <c r="AP39" s="12"/>
-      <c r="AQ39" s="12">
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11">
         <f t="shared" ref="AQ39" si="5">(AQ11+AQ14)/SUM(AQ11:AQ28)</f>
         <v>0.26902964576191546</v>
       </c>
-      <c r="AR39" s="12"/>
-      <c r="AS39" s="12">
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11">
         <f t="shared" ref="AS39" si="6">(AS11+AS14)/SUM(AS11:AS28)</f>
         <v>0.28841530951040917</v>
       </c>
-      <c r="AT39" s="12"/>
+      <c r="AT39" s="11"/>
     </row>
     <row r="40" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="12">
+        <v>92</v>
+      </c>
+      <c r="C40" s="11">
         <f>(C11+C14)/SUM(C11:C28)</f>
         <v>0.21494304286822979</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <f>(E11+E14)/SUM(E11:E28)</f>
         <v>0.21711352011905982</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <f>(G11+G14)/SUM(G11:G28)</f>
         <v>0.21364594937696105</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <f>(I11+I14)/SUM(I11:I28)</f>
         <v>0.21494302095869436</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="11">
         <f>(K11+K14)/SUM(K11:K28)</f>
         <v>0.20486794581545867</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="11">
         <f>(M11+M14)/SUM(M11:M28)</f>
         <v>0.20283535367459807</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="11">
         <f>(O11+O14)/SUM(O11:O28)</f>
         <v>0.20504287114806596</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="Q40" s="11">
         <f>(Q11+Q14)/SUM(Q11:Q28)</f>
         <v>0.20494355373926765</v>
       </c>
-      <c r="S40" s="12">
+      <c r="S40" s="11">
         <f>(S11+S14)/SUM(S11:S28)</f>
         <v>0.20283585672192933</v>
       </c>
-      <c r="U40" s="12">
+      <c r="U40" s="11">
         <f>(U11+U14)/SUM(U11:U28)</f>
         <v>0.20957698577167971</v>
       </c>
-      <c r="W40" s="12">
+      <c r="W40" s="11">
         <f>(W11+W14)/SUM(W11:W28)</f>
         <v>0.20482976154867419</v>
       </c>
-      <c r="Y40" s="12">
+      <c r="Y40" s="11">
         <f>(Y11+Y14)/SUM(Y11:Y28)</f>
         <v>0.20705022438328233</v>
       </c>
-      <c r="AA40" s="12">
+      <c r="AA40" s="11">
         <f>(AA11+AA14)/SUM(AA11:AA28)</f>
         <v>0.20274784746061336</v>
       </c>
-      <c r="AC40" s="12">
+      <c r="AC40" s="11">
         <f>(AC11+AC14)/SUM(AC11:AC28)</f>
         <v>0.20478511468299065</v>
       </c>
-      <c r="AE40" s="12">
+      <c r="AE40" s="11">
         <f>(AE11+AE14)/SUM(AE11:AE28)</f>
         <v>0.18769268300494604</v>
       </c>
-      <c r="AH40" s="12">
+      <c r="AH40" s="11">
         <f>(AH11+AH14)/SUM(AH11:AH28)</f>
         <v>0.20510713890405843</v>
       </c>
-      <c r="AJ40" s="12">
+      <c r="AJ40" s="11">
         <f>(AJ11+AJ14)/SUM(AJ11:AJ28)</f>
         <v>0.20705717292296952</v>
       </c>
-      <c r="AL40" s="12">
+      <c r="AL40" s="11">
         <f>(AL11+AL14)/SUM(AL11:AL28)</f>
         <v>0.20407388486820549</v>
       </c>
-      <c r="AN40" s="12">
+      <c r="AN40" s="11">
         <f>(AN11+AN14)/SUM(AN11:AN28)</f>
         <v>0.20511060148251409</v>
       </c>
-      <c r="AP40" s="12">
+      <c r="AP40" s="11">
         <f>(AP11+AP14)/SUM(AP11:AP28)</f>
         <v>0.1983507989345171</v>
       </c>
-      <c r="AR40" s="12">
+      <c r="AR40" s="11">
         <f>(AR11+AR14)/SUM(AR11:AR28)</f>
         <v>0.19633679888437908</v>
       </c>
-      <c r="AT40" s="12">
+      <c r="AT40" s="11">
         <f>(AT11+AT14)/SUM(AT11:AT28)</f>
         <v>0.19608877826020346</v>
       </c>
     </row>
-    <row r="41" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="23">
-        <f>C11</f>
-        <v>934.11999999999898</v>
-      </c>
-      <c r="E41" s="23">
-        <f>E11</f>
-        <v>930.55</v>
-      </c>
-      <c r="G41" s="23">
-        <f>G11</f>
-        <v>911.11</v>
-      </c>
-      <c r="I41" s="23">
-        <f>I11</f>
-        <v>934.11999999999898</v>
-      </c>
-      <c r="K41" s="23">
-        <f>K11</f>
-        <v>1039.82</v>
-      </c>
-      <c r="M41" s="23">
-        <f>M11</f>
-        <v>1046.54</v>
-      </c>
-      <c r="O41" s="23">
-        <f>O11</f>
-        <v>1043.3899999999901</v>
-      </c>
-      <c r="Q41" s="23">
-        <f>Q11</f>
-        <v>1036.99</v>
-      </c>
-      <c r="S41" s="23">
-        <f>S11</f>
-        <v>1046.54</v>
-      </c>
-      <c r="U41" s="23">
-        <f>U11</f>
-        <v>1024.82</v>
-      </c>
-      <c r="W41" s="23">
-        <f>W11</f>
-        <v>913.969999999999</v>
-      </c>
-      <c r="Y41" s="23">
-        <f>Y11</f>
-        <v>910.04</v>
-      </c>
-      <c r="AA41" s="23">
-        <f>AA11</f>
-        <v>887.3</v>
-      </c>
-      <c r="AC41" s="23">
-        <f>AC11</f>
-        <v>913.77999999999895</v>
-      </c>
-      <c r="AE41" s="23">
-        <f>AE11</f>
-        <v>973.29</v>
-      </c>
-      <c r="AH41" s="23">
-        <f>AH11</f>
-        <v>890.68999999999903</v>
-      </c>
-      <c r="AJ41" s="23">
-        <f>AJ11</f>
-        <v>886.83999999999901</v>
-      </c>
-      <c r="AL41" s="23">
-        <f>AL11</f>
-        <v>873.21</v>
-      </c>
-      <c r="AN41" s="23">
-        <f>AN11</f>
-        <v>890.70999999999901</v>
-      </c>
-      <c r="AP41" s="23">
-        <f>AP11</f>
-        <v>1004.99</v>
-      </c>
-      <c r="AR41" s="23">
-        <f>AR11</f>
-        <v>1010.79</v>
-      </c>
-      <c r="AT41" s="23">
-        <f>AT11</f>
-        <v>871.62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="23">
-        <f>C5*1000</f>
-        <v>3431.03611</v>
-      </c>
-      <c r="E42" s="23">
-        <f>E5*1000</f>
-        <v>3437.8516499999996</v>
-      </c>
-      <c r="G42" s="23">
-        <f>G5*1000</f>
-        <v>3419.9927400000001</v>
-      </c>
-      <c r="I42" s="23">
-        <f>I5*1000</f>
-        <v>3431.03611</v>
-      </c>
-      <c r="K42" s="23">
-        <f>K5*1000</f>
-        <v>3436.7533699999999</v>
-      </c>
-      <c r="M42" s="23">
-        <f>M5*1000</f>
-        <v>3436.7453600000003</v>
-      </c>
-      <c r="O42" s="23">
-        <f>O5*1000</f>
-        <v>3441.0209199999899</v>
-      </c>
-      <c r="Q42" s="23">
-        <f>Q5*1000</f>
-        <v>3429.0131200000001</v>
-      </c>
-      <c r="S42" s="23">
-        <f>S5*1000</f>
-        <v>3436.7431000000001</v>
-      </c>
-      <c r="U42" s="23">
-        <f>U5*1000</f>
-        <v>3434.6971599999997</v>
-      </c>
-      <c r="W42" s="23">
-        <f>W5*1000</f>
-        <v>3080.4322900000002</v>
-      </c>
-      <c r="Y42" s="23">
-        <f>Y5*1000</f>
-        <v>3087.4960800000003</v>
-      </c>
-      <c r="AA42" s="23">
-        <f>AA5*1000</f>
-        <v>3071.3215599999999</v>
-      </c>
-      <c r="AC42" s="23">
-        <f>AC5*1000</f>
-        <v>3080.44589</v>
-      </c>
-      <c r="AE42" s="23">
-        <f>AE5*1000</f>
-        <v>3084.2900000000004</v>
-      </c>
-      <c r="AH42" s="23">
-        <f>AH5*1000</f>
-        <v>3427.61129999999</v>
-      </c>
-      <c r="AJ42" s="23">
-        <f>AJ5*1000</f>
-        <v>3433.8076900000001</v>
-      </c>
-      <c r="AL42" s="23">
-        <f>AL5*1000</f>
-        <v>3416.14139999999</v>
-      </c>
-      <c r="AN42" s="23">
-        <f>AN5*1000</f>
-        <v>3427.6117799999997</v>
-      </c>
-      <c r="AP42" s="23">
-        <f>AP5*1000</f>
-        <v>3435.00567</v>
-      </c>
-      <c r="AR42" s="23">
-        <f>AR5*1000</f>
-        <v>3435.5914299999899</v>
-      </c>
-      <c r="AT42" s="23">
-        <f>AT5*1000</f>
-        <v>3078.0287999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="3">
-        <f>C42*1000/C41</f>
-        <v>3673.0142915257179</v>
-      </c>
-      <c r="E43" s="3">
-        <f>E42*1000/E41</f>
-        <v>3694.4297995808924</v>
-      </c>
-      <c r="G43" s="3">
-        <f>G42*1000/G41</f>
-        <v>3753.6551459209099</v>
-      </c>
-      <c r="I43" s="3">
-        <f>I42*1000/I41</f>
-        <v>3673.0142915257179</v>
-      </c>
-      <c r="K43" s="3">
-        <f>K42*1000/K41</f>
-        <v>3305.1425919870749</v>
-      </c>
-      <c r="M43" s="3">
-        <f>M42*1000/M41</f>
-        <v>3283.9120912721928</v>
-      </c>
-      <c r="O43" s="3">
-        <f>O42*1000/O41</f>
-        <v>3297.923997738164</v>
-      </c>
-      <c r="Q43" s="3">
-        <f>Q42*1000/Q41</f>
-        <v>3306.6983481036464</v>
-      </c>
-      <c r="S43" s="3">
-        <f>S42*1000/S41</f>
-        <v>3283.9099317751834</v>
-      </c>
-      <c r="U43" s="3">
-        <f>U42*1000/U41</f>
-        <v>3351.5126168497882</v>
-      </c>
-      <c r="W43" s="3">
-        <f>W42*1000/W41</f>
-        <v>3370.3866538289039</v>
-      </c>
-      <c r="Y43" s="3">
-        <f>Y42*1000/Y41</f>
-        <v>3392.7037053316344</v>
-      </c>
-      <c r="AA43" s="3">
-        <f>AA42*1000/AA41</f>
-        <v>3461.4240504902514</v>
-      </c>
-      <c r="AC43" s="3">
-        <f>AC42*1000/AC41</f>
-        <v>3371.102333165536</v>
-      </c>
-      <c r="AE43" s="3">
-        <f>AE42*1000/AE41</f>
-        <v>3168.9321784873991</v>
-      </c>
-      <c r="AH43" s="3">
-        <f>AH42*1000/AH41</f>
-        <v>3848.2651652089885</v>
-      </c>
-      <c r="AJ43" s="3">
-        <f>AJ42*1000/AJ41</f>
-        <v>3871.9585156285279</v>
-      </c>
-      <c r="AL43" s="3">
-        <f>AL42*1000/AL41</f>
-        <v>3912.1647713608295</v>
-      </c>
-      <c r="AN43" s="3">
-        <f>AN42*1000/AN41</f>
-        <v>3848.1792951690263</v>
-      </c>
-      <c r="AP43" s="3">
-        <f>AP42*1000/AP41</f>
-        <v>3417.9500990059601</v>
-      </c>
-      <c r="AR43" s="3">
-        <f>AR42*1000/AR41</f>
-        <v>3398.9171143363014</v>
-      </c>
-      <c r="AT43" s="3">
-        <f>AT42*1000/AT41</f>
-        <v>3531.3884490947889</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="15">
-        <v>2030</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="15">
-        <v>2035</v>
-      </c>
-      <c r="E45" s="7"/>
-    </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="13">
-        <f>MIN(B21,D21,F21,H21,J21,L21,N21,P21,R21,T21,V21,X21,Z21,AB21,AD21)</f>
-        <v>896.33244729900696</v>
-      </c>
-      <c r="C47" s="13">
-        <f>MAX(B21,D21,F21,H21,J21,L21,N21,P21,R21,T21,V21,X21,Z21,AB21,AD21)</f>
-        <v>1151.09978172825</v>
-      </c>
-      <c r="D47" s="13">
-        <f>MIN(C21,E21,G21,I21,K21,M21,O21,Q21,S21,U21,W21,Y21,AA21,AC21,AE21)</f>
-        <v>1338.3503540582301</v>
-      </c>
-      <c r="E47" s="13">
-        <f>MAX(C21,E21,G21,I21,K21,M21,O21,Q21,S21,U21,W21,Y21,AA21,AC21,AE21)</f>
-        <v>1911.4371452841499</v>
-      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="13">
-        <f>MIN(B22,D22,F22,H22,J22,L22,N22,P22,R22,T22,V22,X22,Z22,AB22,AD22)</f>
-        <v>109.000019752119</v>
-      </c>
-      <c r="C48" s="13">
-        <f t="shared" ref="C48:C50" si="7">MAX(B22,D22,F22,H22,J22,L22,N22,P22,R22,T22,V22,X22,Z22,AB22,AD22)</f>
-        <v>109.000062686628</v>
-      </c>
-      <c r="D48" s="13">
-        <f t="shared" ref="D48:D50" si="8">MIN(C22,E22,G22,I22,K22,M22,O22,Q22,S22,U22,W22,Y22,AA22,AC22,AE22)</f>
-        <v>109.72421291181401</v>
-      </c>
-      <c r="E48" s="13">
-        <f t="shared" ref="E48:E50" si="9">MAX(C22,E22,G22,I22,K22,M22,O22,Q22,S22,U22,W22,Y22,AA22,AC22,AE22)</f>
-        <v>109.724255846323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="13">
-        <f>MIN(B23,D23,F23,H23,J23,L23,N23,P23,R23,T23,V23,X23,Z23,AB23,AD23)</f>
-        <v>872.73206921999997</v>
-      </c>
-      <c r="C49" s="13">
-        <f t="shared" si="7"/>
-        <v>1048.5061436199901</v>
-      </c>
-      <c r="D49" s="13">
-        <f>MIN(C23,E23,G23,I23,K23,M23,O23,Q23,S23,U23,W23,Y23,AA23,AC23,AE23)</f>
-        <v>872.73206921999997</v>
-      </c>
-      <c r="E49" s="13">
-        <f t="shared" si="9"/>
-        <v>1407.44525325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="13">
-        <f>MIN(B24,D24,F24,H24,J24,L24,N24,P24,R24,T24,V24,X24,Z24,AB24,AD24)</f>
-        <v>468.00001522999997</v>
-      </c>
-      <c r="C50" s="13">
-        <f t="shared" si="7"/>
-        <v>468.000364259999</v>
-      </c>
-      <c r="D50" s="13">
-        <f t="shared" si="8"/>
-        <v>468.00001531999999</v>
-      </c>
-      <c r="E50" s="13">
-        <f t="shared" si="9"/>
-        <v>468.00516338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="13">
-        <f>MIN(B35,D35,F35,H35,J35,L35,N35,P35,R35,T35,V35,X35,Z35,AB35,AD35)</f>
-        <v>2346.0649005311202</v>
-      </c>
-      <c r="C51" s="13">
-        <f>MAX(B35,D35,F35,H35,J35,L35,N35,P35,R35,T35,V35,X35,Z35,AB35,AD35)</f>
-        <v>2776.605977405</v>
-      </c>
-      <c r="D51" s="13">
-        <f>MIN(C35,E35,G35,I35,K35,M35,O35,Q35,S35,U35,W35,Y35,AA35,AC35,AE35)</f>
-        <v>2913.35179780614</v>
-      </c>
-      <c r="E51" s="13">
-        <f>MAX(C35,E35,G35,I35,K35,M35,O35,Q35,S35,U35,W35,Y35,AA35,AC35,AE35)</f>
-        <v>3801.0626721383501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="14">
-        <f>MIN(B39,D39,F39,H39,J39,L39,N39,P39,R39,T39,V39,X39,Z39,AB39,AD39)</f>
-        <v>0.27288780363292886</v>
-      </c>
-      <c r="C52" s="14">
-        <f>MAX(B39,D39,F39,H39,J39,L39,N39,P39,R39,T39,V39,X39,Z39,AB39,AD39)</f>
-        <v>0.29878369964033785</v>
-      </c>
-      <c r="D52" s="14">
-        <f>MIN(C40,E40,G40,I40,K40,M40,O40,Q40,S40,U40,W40,Y40,AA40,AC40,AE40)</f>
-        <v>0.18769268300494604</v>
-      </c>
-      <c r="E52" s="14">
-        <f>MAX(C40,E40,G40,I40,K40,M40,O40,Q40,S40,U40,W40,Y40,AA40,AC40,AE40)</f>
-        <v>0.21711352011905982</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53">
-        <f>MIN(B11,D11,F11,H11,J11,L11,N11,P11,R11,T11,V11,X11,Z11,AB11,AD11)</f>
-        <v>1225.6099999999999</v>
-      </c>
-      <c r="C53">
-        <f>MAX(B11,D11,F11,H11,J11,L11,N11,P11,R11,T11,V11,X11,Z11,AB11,AD11)</f>
-        <v>1225.6099999999999</v>
-      </c>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7487,9 +7005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A25CE2B-2DE9-2E45-B1BF-0FF1315D2AE9}">
   <dimension ref="A1:AV43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7524,145 +7040,145 @@
     <col min="32" max="32" width="10.83203125" style="7"/>
     <col min="33" max="34" width="10.83203125" style="8"/>
     <col min="35" max="35" width="10.83203125" style="7"/>
-    <col min="36" max="36" width="10.83203125" style="22"/>
+    <col min="36" max="36" width="10.83203125" style="18"/>
     <col min="37" max="37" width="10.83203125" style="7"/>
-    <col min="38" max="38" width="10.83203125" style="22"/>
+    <col min="38" max="38" width="10.83203125" style="18"/>
     <col min="39" max="39" width="10.83203125" style="7"/>
-    <col min="40" max="40" width="10.83203125" style="22"/>
+    <col min="40" max="40" width="10.83203125" style="18"/>
     <col min="41" max="41" width="10.83203125" style="7"/>
-    <col min="42" max="42" width="10.83203125" style="22"/>
+    <col min="42" max="42" width="10.83203125" style="18"/>
     <col min="43" max="43" width="10.83203125" style="7"/>
-    <col min="44" max="44" width="10.83203125" style="22"/>
+    <col min="44" max="44" width="10.83203125" style="18"/>
     <col min="45" max="45" width="10.83203125" style="7"/>
-    <col min="46" max="46" width="10.83203125" style="22"/>
+    <col min="46" max="46" width="10.83203125" style="18"/>
     <col min="47" max="47" width="10.83203125" style="7"/>
-    <col min="48" max="48" width="10.83203125" style="22"/>
+    <col min="48" max="48" width="10.83203125" style="18"/>
     <col min="49" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2">
-        <v>2030</v>
+      <c r="A1" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="16"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="16"/>
+      <c r="P1" s="12"/>
       <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="16"/>
+      <c r="R1" s="12"/>
       <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="16"/>
+      <c r="T1" s="12"/>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
       <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="16"/>
+      <c r="Y1" s="12"/>
       <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="16"/>
+      <c r="AA1" s="12"/>
       <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="16"/>
+      <c r="AC1" s="12"/>
       <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="16"/>
+      <c r="AE1" s="12"/>
       <c r="AF1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
       <c r="AI1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ1" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="AJ1" s="17"/>
       <c r="AK1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL1" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="AL1" s="17"/>
       <c r="AM1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN1" s="21"/>
+        <v>95</v>
+      </c>
+      <c r="AN1" s="17"/>
       <c r="AO1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP1" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="AP1" s="17"/>
       <c r="AQ1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR1" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="AR1" s="17"/>
       <c r="AS1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT1" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="AT1" s="17"/>
       <c r="AU1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV1" s="21"/>
+        <v>99</v>
+      </c>
+      <c r="AV1" s="17"/>
     </row>
     <row r="2" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
       <c r="AJ2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AN2" s="4"/>
@@ -7673,101 +7189,101 @@
     </row>
     <row r="3" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
         <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="13">
         <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="13">
         <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="17">
-        <v>0</v>
-      </c>
-      <c r="L3" s="17"/>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13"/>
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="13">
         <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="13">
         <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="13">
         <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="13">
         <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3" s="17">
-        <v>0</v>
-      </c>
-      <c r="W3" s="17"/>
+      <c r="V3" s="13">
+        <v>0</v>
+      </c>
+      <c r="W3" s="13"/>
       <c r="X3">
         <v>0</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="13">
         <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="13">
         <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AC3" s="13">
         <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AE3" s="13">
         <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="17"/>
+      <c r="AG3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="13"/>
       <c r="AI3">
         <v>0</v>
       </c>
@@ -7813,101 +7329,101 @@
     </row>
     <row r="4" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
         <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="13">
         <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="17">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17"/>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13"/>
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="13">
         <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="13">
         <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="13">
         <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="13">
         <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4" s="17">
-        <v>0</v>
-      </c>
-      <c r="W4" s="17"/>
+      <c r="V4" s="13">
+        <v>0</v>
+      </c>
+      <c r="W4" s="13"/>
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="13">
         <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AA4" s="13">
         <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AC4" s="17">
+      <c r="AC4" s="13">
         <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
-      <c r="AE4" s="17">
+      <c r="AE4" s="13">
         <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="17"/>
+      <c r="AG4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="13"/>
       <c r="AI4">
         <v>0</v>
       </c>
@@ -7953,101 +7469,101 @@
     </row>
     <row r="5" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>4.3945511444857503</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <v>0.35156409155885998</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>4.3945511444857503</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>0.35156409155885998</v>
       </c>
       <c r="F5">
         <v>4.3945511444857503</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <v>0.35156409155885998</v>
       </c>
       <c r="H5">
         <v>4.3945511444857503</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>0.35156409155885998</v>
       </c>
       <c r="J5">
         <v>4.3945511444857503</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="13">
         <v>0.35156409155885998</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="13"/>
       <c r="M5">
         <v>4.3958532677438598</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="13">
         <v>0.32561876057361899</v>
       </c>
       <c r="O5">
         <v>4.3958532677438598</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="13">
         <v>0.32561876057361899</v>
       </c>
       <c r="Q5">
         <v>4.3958532677438598</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="13">
         <v>0.32561876057361899</v>
       </c>
       <c r="S5">
         <v>4.3958532677438598</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="13">
         <v>0.32561876057361899</v>
       </c>
       <c r="U5">
         <v>4.3958532677438598</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="13">
         <v>0.32561876057361899</v>
       </c>
-      <c r="W5" s="17"/>
+      <c r="W5" s="13"/>
       <c r="X5">
         <v>4.1814006320457997</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="13">
         <v>0.33451205056366301</v>
       </c>
       <c r="Z5">
         <v>4.1814715615734102</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="13">
         <v>0.33451772492587201</v>
       </c>
       <c r="AB5">
         <v>4.1814715615734102</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AC5" s="13">
         <v>0.33451772492587201</v>
       </c>
       <c r="AD5">
         <v>4.1814715615734102</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AE5" s="13">
         <v>0.33451772492587201</v>
       </c>
       <c r="AF5">
         <v>4.1814715615734102</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AG5" s="13">
         <v>0.33451772492587201</v>
       </c>
-      <c r="AH5" s="17"/>
+      <c r="AH5" s="13"/>
       <c r="AI5">
         <v>4.3914863606942598</v>
       </c>
@@ -8093,101 +7609,101 @@
     </row>
     <row r="6" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
         <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17"/>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13"/>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="13">
         <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="13">
         <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="13">
         <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="13">
         <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6" s="17">
-        <v>0</v>
-      </c>
-      <c r="W6" s="17"/>
+      <c r="V6" s="13">
+        <v>0</v>
+      </c>
+      <c r="W6" s="13"/>
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6" s="17">
+      <c r="Y6" s="13">
         <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
-      <c r="AA6" s="17">
+      <c r="AA6" s="13">
         <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
-      <c r="AC6" s="17">
+      <c r="AC6" s="13">
         <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
-      <c r="AE6" s="17">
+      <c r="AE6" s="13">
         <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="17"/>
+      <c r="AG6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="13"/>
       <c r="AI6">
         <v>0</v>
       </c>
@@ -8233,101 +7749,101 @@
     </row>
     <row r="7" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>5.6940001307819101E-2</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="13">
         <v>4.5552001046255302E-3</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>5.6940001307819101E-2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <v>4.5552001046255302E-3</v>
       </c>
       <c r="F7">
         <v>5.6940001307819101E-2</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <v>4.5552001046255302E-3</v>
       </c>
       <c r="H7">
         <v>5.6940001307819101E-2</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>4.5552001046255302E-3</v>
       </c>
       <c r="J7">
         <v>5.6940001307819101E-2</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="13">
         <v>4.5552001046255302E-3</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="13"/>
       <c r="M7">
         <v>5.6940001916814503E-2</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="13">
         <v>4.2177779197640304E-3</v>
       </c>
       <c r="O7">
         <v>5.6940001916814503E-2</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="13">
         <v>4.2177779197640304E-3</v>
       </c>
       <c r="Q7">
         <v>5.6940001916814503E-2</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="13">
         <v>4.2177779197640304E-3</v>
       </c>
       <c r="S7">
         <v>5.6940001916814503E-2</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="13">
         <v>4.2177779197640304E-3</v>
       </c>
       <c r="U7">
         <v>5.6940001916814503E-2</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="13">
         <v>4.2177779197640304E-3</v>
       </c>
-      <c r="W7" s="17"/>
+      <c r="W7" s="13"/>
       <c r="X7">
         <v>5.6940001077331201E-2</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="13">
         <v>4.5552000861864899E-3</v>
       </c>
       <c r="Z7">
         <v>5.6940003904322599E-2</v>
       </c>
-      <c r="AA7" s="17">
+      <c r="AA7" s="13">
         <v>4.5552003123458E-3</v>
       </c>
       <c r="AB7">
         <v>5.6940003904322599E-2</v>
       </c>
-      <c r="AC7" s="17">
+      <c r="AC7" s="13">
         <v>4.5552003123458E-3</v>
       </c>
       <c r="AD7">
         <v>5.6940003904322599E-2</v>
       </c>
-      <c r="AE7" s="17">
+      <c r="AE7" s="13">
         <v>4.5552003123458E-3</v>
       </c>
       <c r="AF7">
         <v>5.6940003904322599E-2</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AG7" s="13">
         <v>4.5552003123458E-3</v>
       </c>
-      <c r="AH7" s="17"/>
+      <c r="AH7" s="13"/>
       <c r="AI7">
         <v>5.6940001260960799E-2</v>
       </c>
@@ -8373,101 +7889,101 @@
     </row>
     <row r="8" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>1.5450955750436599</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <v>0.123607646003492</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>1.5450955750436599</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>0.123607646003492</v>
       </c>
       <c r="F8">
         <v>1.5450955750436599</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>0.123607646003492</v>
       </c>
       <c r="H8">
         <v>1.5450955750436599</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>0.123607646003492</v>
       </c>
       <c r="J8">
         <v>1.5450955750436599</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="13">
         <v>0.123607646003492</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="13"/>
       <c r="M8">
         <v>1.54380104423176</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="13">
         <v>0.11435563290605601</v>
       </c>
       <c r="O8">
         <v>1.54380104423176</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="13">
         <v>0.11435563290605601</v>
       </c>
       <c r="Q8">
         <v>1.54380104423176</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="13">
         <v>0.11435563290605601</v>
       </c>
       <c r="S8">
         <v>1.54380104423176</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="13">
         <v>0.11435563290605601</v>
       </c>
       <c r="U8">
         <v>1.54380104423176</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="13">
         <v>0.11435563290605601</v>
       </c>
-      <c r="W8" s="17"/>
+      <c r="W8" s="13"/>
       <c r="X8">
         <v>1.5448768267786099</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="13">
         <v>0.123590146142288</v>
       </c>
       <c r="Z8">
         <v>1.54462153736283</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AA8" s="13">
         <v>0.12356972298902701</v>
       </c>
       <c r="AB8">
         <v>1.54462153736283</v>
       </c>
-      <c r="AC8" s="17">
+      <c r="AC8" s="13">
         <v>0.12356972298902701</v>
       </c>
       <c r="AD8">
         <v>1.54462153736283</v>
       </c>
-      <c r="AE8" s="17">
+      <c r="AE8" s="13">
         <v>0.12356972298902701</v>
       </c>
       <c r="AF8">
         <v>1.54462153736283</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AG8" s="13">
         <v>0.12356972298902701</v>
       </c>
-      <c r="AH8" s="17"/>
+      <c r="AH8" s="13"/>
       <c r="AI8">
         <v>1.5454408155552599</v>
       </c>
@@ -8513,101 +8029,101 @@
     </row>
     <row r="9" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>1.09285962170379</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="13">
         <v>8.7428769736303397E-2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>1.09285962170379</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <v>8.7428769736303397E-2</v>
       </c>
       <c r="F9">
         <v>1.09285962170379</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <v>8.7428769736303397E-2</v>
       </c>
       <c r="H9">
         <v>1.09285962170379</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <v>8.7428769736303397E-2</v>
       </c>
       <c r="J9">
         <v>1.09285962170379</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="13">
         <v>8.7428769736303397E-2</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="13"/>
       <c r="M9">
         <v>1.09160740203548</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="13">
         <v>8.0859807558184102E-2</v>
       </c>
       <c r="O9">
         <v>1.09160740203548</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="13">
         <v>8.0859807558184102E-2</v>
       </c>
       <c r="Q9">
         <v>1.09160740203548</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="13">
         <v>8.0859807558184102E-2</v>
       </c>
       <c r="S9">
         <v>1.09160740203548</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="13">
         <v>8.0859807558184102E-2</v>
       </c>
       <c r="U9">
         <v>1.09160740203548</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="13">
         <v>8.0859807558184102E-2</v>
       </c>
-      <c r="W9" s="17"/>
+      <c r="W9" s="13"/>
       <c r="X9">
         <v>1.0923491966519301</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="13">
         <v>8.7387935732154406E-2</v>
       </c>
       <c r="Z9">
         <v>1.0923394478324999</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="13">
         <v>8.7387155826600102E-2</v>
       </c>
       <c r="AB9">
         <v>1.0923394478324999</v>
       </c>
-      <c r="AC9" s="17">
+      <c r="AC9" s="13">
         <v>8.7387155826600102E-2</v>
       </c>
       <c r="AD9">
         <v>1.0923394478324999</v>
       </c>
-      <c r="AE9" s="17">
+      <c r="AE9" s="13">
         <v>8.7387155826600102E-2</v>
       </c>
       <c r="AF9">
         <v>1.0923394478324999</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AG9" s="13">
         <v>8.7387155826600102E-2</v>
       </c>
-      <c r="AH9" s="17"/>
+      <c r="AH9" s="13"/>
       <c r="AI9">
         <v>1.09337567018042</v>
       </c>
@@ -8653,101 +8169,101 @@
     </row>
     <row r="10" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>3.0324420199768598</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <v>0.24259536159814801</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>3.0324420199768598</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>0.24259536159814801</v>
       </c>
       <c r="F10">
         <v>3.0324420199768598</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>0.24259536159814801</v>
       </c>
       <c r="H10">
         <v>3.0324420199768598</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <v>0.24259536159814801</v>
       </c>
       <c r="J10">
         <v>3.0324420199768598</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="13">
         <v>0.24259536159814801</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="13"/>
       <c r="M10">
         <v>3.7818613916841701</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="13">
         <v>0.28013788086549302</v>
       </c>
       <c r="O10">
         <v>3.7818613916841701</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="13">
         <v>0.28013788086549302</v>
       </c>
       <c r="Q10">
         <v>3.7818613916841701</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="13">
         <v>0.28013788086549302</v>
       </c>
       <c r="S10">
         <v>3.7818613916841701</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="13">
         <v>0.28013788086549302</v>
       </c>
       <c r="U10">
         <v>3.7818613916841701</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="13">
         <v>0.28013788086549302</v>
       </c>
-      <c r="W10" s="17"/>
+      <c r="W10" s="13"/>
       <c r="X10">
         <v>3.2175384293567899</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="13">
         <v>0.25740307434854298</v>
       </c>
       <c r="Z10">
         <v>3.2161410506524</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AA10" s="13">
         <v>0.25729128405219198</v>
       </c>
       <c r="AB10">
         <v>3.2161410506524</v>
       </c>
-      <c r="AC10" s="17">
+      <c r="AC10" s="13">
         <v>0.25729128405219198</v>
       </c>
       <c r="AD10">
         <v>3.2161410506524</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AE10" s="13">
         <v>0.25729128405219198</v>
       </c>
       <c r="AF10">
         <v>3.2161410506524</v>
       </c>
-      <c r="AG10" s="17">
+      <c r="AG10" s="13">
         <v>0.25729128405219198</v>
       </c>
-      <c r="AH10" s="17"/>
+      <c r="AH10" s="13"/>
       <c r="AI10">
         <v>2.9241725367853499</v>
       </c>
@@ -8793,101 +8309,101 @@
     </row>
     <row r="11" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>2.1955440883338602</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <v>0.17564352706670899</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <v>2.1955440883338602</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="15">
         <v>0.17564352706670899</v>
       </c>
       <c r="F11">
         <v>2.1955440883338602</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <v>0.17564352706670899</v>
       </c>
       <c r="H11">
         <v>2.1955440883338602</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <v>0.17564352706670899</v>
       </c>
       <c r="J11">
         <v>2.1955440883338602</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="13">
         <v>0.17564352706670899</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="13"/>
       <c r="M11">
         <v>2.4608753523554898</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="13">
         <v>0.182287063137443</v>
       </c>
       <c r="O11">
         <v>2.4608753523554898</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="13">
         <v>0.182287063137443</v>
       </c>
       <c r="Q11">
         <v>2.4608753523554898</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="13">
         <v>0.182287063137443</v>
       </c>
       <c r="S11">
         <v>2.4608753523554898</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="13">
         <v>0.182287063137443</v>
       </c>
       <c r="U11">
         <v>2.4608753523554898</v>
       </c>
-      <c r="V11" s="17">
+      <c r="V11" s="13">
         <v>0.182287063137443</v>
       </c>
-      <c r="W11" s="17"/>
+      <c r="W11" s="13"/>
       <c r="X11">
         <v>2.22788666057152</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="13">
         <v>0.178230932845721</v>
       </c>
       <c r="Z11">
         <v>2.22956961079759</v>
       </c>
-      <c r="AA11" s="17">
+      <c r="AA11" s="13">
         <v>0.178365568863807</v>
       </c>
       <c r="AB11">
         <v>2.22956961079759</v>
       </c>
-      <c r="AC11" s="17">
+      <c r="AC11" s="13">
         <v>0.178365568863807</v>
       </c>
       <c r="AD11">
         <v>2.22956961079759</v>
       </c>
-      <c r="AE11" s="17">
+      <c r="AE11" s="13">
         <v>0.178365568863807</v>
       </c>
       <c r="AF11">
         <v>2.22956961079759</v>
       </c>
-      <c r="AG11" s="17">
+      <c r="AG11" s="13">
         <v>0.178365568863807</v>
       </c>
-      <c r="AH11" s="17"/>
+      <c r="AH11" s="13"/>
       <c r="AI11">
         <v>2.3031851931113199</v>
       </c>
@@ -8933,101 +8449,101 @@
     </row>
     <row r="12" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0.24535008</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <v>1.9628006399999901E-2</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>0.24535008</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>1.9628006399999901E-2</v>
       </c>
       <c r="F12">
         <v>0.24535008</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="13">
         <v>1.9628006399999901E-2</v>
       </c>
       <c r="H12">
         <v>0.24535008</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="13">
         <v>1.9628006399999901E-2</v>
       </c>
       <c r="J12">
         <v>0.24535008</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="13">
         <v>1.9628006399999901E-2</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="13"/>
       <c r="M12">
         <v>0.24535008</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="O12">
         <v>0.24535008</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="Q12">
         <v>0.24535008</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="S12">
         <v>0.24535008</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="U12">
         <v>0.24535008</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
-      <c r="W12" s="17"/>
+      <c r="W12" s="13"/>
       <c r="X12">
         <v>0.24535008</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="13">
         <v>1.9628006399999901E-2</v>
       </c>
       <c r="Z12">
         <v>0.24535008</v>
       </c>
-      <c r="AA12" s="17">
+      <c r="AA12" s="13">
         <v>1.9628006399999901E-2</v>
       </c>
       <c r="AB12">
         <v>0.24535008</v>
       </c>
-      <c r="AC12" s="17">
+      <c r="AC12" s="13">
         <v>1.9628006399999901E-2</v>
       </c>
       <c r="AD12">
         <v>0.24535008</v>
       </c>
-      <c r="AE12" s="17">
+      <c r="AE12" s="13">
         <v>1.9628006399999901E-2</v>
       </c>
       <c r="AF12">
         <v>0.24535008</v>
       </c>
-      <c r="AG12" s="17">
+      <c r="AG12" s="13">
         <v>1.9628006399999901E-2</v>
       </c>
-      <c r="AH12" s="17"/>
+      <c r="AH12" s="13"/>
       <c r="AI12">
         <v>0.24535008</v>
       </c>
@@ -9073,57 +8589,57 @@
     </row>
     <row r="13" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="17">
+        <v>29</v>
+      </c>
+      <c r="C13" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17">
+      <c r="D13" s="14"/>
+      <c r="E13" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="13">
         <v>0.41823888866485798</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="N13" s="17">
+      <c r="L13" s="13"/>
+      <c r="N13" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="V13" s="17">
+      <c r="V13" s="13">
         <v>0.46242494400293699</v>
       </c>
-      <c r="W13" s="17"/>
-      <c r="Y13" s="17">
+      <c r="W13" s="13"/>
+      <c r="Y13" s="13">
         <v>0.43563400719426398</v>
       </c>
-      <c r="AA13" s="17">
+      <c r="AA13" s="13">
         <v>0.43565685291599898</v>
       </c>
-      <c r="AC13" s="17">
+      <c r="AC13" s="13">
         <v>0.43565685291599898</v>
       </c>
-      <c r="AE13" s="17">
+      <c r="AE13" s="13">
         <v>0.43565685291599898</v>
       </c>
-      <c r="AG13" s="17">
+      <c r="AG13" s="13">
         <v>0.43565685291599898</v>
       </c>
-      <c r="AH13" s="17"/>
+      <c r="AH13" s="13"/>
       <c r="AJ13" s="4">
         <v>0.41818861839173399</v>
       </c>
@@ -9148,57 +8664,57 @@
     </row>
     <row r="14" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="17">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13">
         <v>0.64890331080465402</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17">
+      <c r="D14" s="14"/>
+      <c r="E14" s="13">
         <v>0.64890331080465402</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="13">
         <v>0.64890331080465402</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="13">
         <v>0.64890331080465402</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="13">
         <v>0.64890331080465402</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="N14" s="17">
+      <c r="L14" s="13"/>
+      <c r="N14" s="13">
         <v>0.67581446446717797</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="13">
         <v>0.67581446446717797</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="13">
         <v>0.67581446446717797</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="13">
         <v>0.67581446446717797</v>
       </c>
-      <c r="V14" s="17">
+      <c r="V14" s="13">
         <v>0.67581446446717797</v>
       </c>
-      <c r="W14" s="17"/>
-      <c r="Y14" s="17">
+      <c r="W14" s="13"/>
+      <c r="Y14" s="13">
         <v>0.66624009546870699</v>
       </c>
-      <c r="AA14" s="17">
+      <c r="AA14" s="13">
         <v>0.66624173813162602</v>
       </c>
-      <c r="AC14" s="17">
+      <c r="AC14" s="13">
         <v>0.66624173813162602</v>
       </c>
-      <c r="AE14" s="17">
+      <c r="AE14" s="13">
         <v>0.66624173813162602</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AG14" s="13">
         <v>0.66624173813162602</v>
       </c>
-      <c r="AH14" s="17"/>
+      <c r="AH14" s="13"/>
       <c r="AJ14" s="4">
         <v>0.64892194365058797</v>
       </c>
@@ -9223,71 +8739,71 @@
     </row>
     <row r="15" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="15"/>
       <c r="F15">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="13"/>
       <c r="H15">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="13"/>
       <c r="J15">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="13"/>
       <c r="O15">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="P15" s="17"/>
+      <c r="P15" s="13"/>
       <c r="Q15">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="R15" s="17"/>
+      <c r="R15" s="13"/>
       <c r="S15">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="T15" s="17"/>
+      <c r="T15" s="13"/>
       <c r="U15">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
       <c r="X15">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="Y15" s="17"/>
+      <c r="Y15" s="13"/>
       <c r="Z15">
         <v>2.23E-2</v>
       </c>
-      <c r="AA15" s="17"/>
+      <c r="AA15" s="13"/>
       <c r="AB15">
         <v>2.23E-2</v>
       </c>
-      <c r="AC15" s="17"/>
+      <c r="AC15" s="13"/>
       <c r="AD15">
         <v>2.23E-2</v>
       </c>
-      <c r="AE15" s="17"/>
+      <c r="AE15" s="13"/>
       <c r="AF15">
         <v>2.23E-2</v>
       </c>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
       <c r="AI15">
         <v>1.5800000000000002E-2</v>
       </c>
@@ -9319,71 +8835,71 @@
     </row>
     <row r="16" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="15"/>
       <c r="F16">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="13"/>
       <c r="H16">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="13"/>
       <c r="J16">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16">
         <v>3.15E-2</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="N16" s="13"/>
       <c r="O16">
         <v>3.15E-2</v>
       </c>
-      <c r="P16" s="17"/>
+      <c r="P16" s="13"/>
       <c r="Q16">
         <v>3.15E-2</v>
       </c>
-      <c r="R16" s="17"/>
+      <c r="R16" s="13"/>
       <c r="S16">
         <v>3.15E-2</v>
       </c>
-      <c r="T16" s="17"/>
+      <c r="T16" s="13"/>
       <c r="U16">
         <v>3.15E-2</v>
       </c>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
       <c r="X16">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="Y16" s="17"/>
+      <c r="Y16" s="13"/>
       <c r="Z16">
         <v>2.24E-2</v>
       </c>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="13"/>
       <c r="AB16">
         <v>2.24E-2</v>
       </c>
-      <c r="AC16" s="17"/>
+      <c r="AC16" s="13"/>
       <c r="AD16">
         <v>2.24E-2</v>
       </c>
-      <c r="AE16" s="17"/>
+      <c r="AE16" s="13"/>
       <c r="AF16">
         <v>2.24E-2</v>
       </c>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
       <c r="AI16">
         <v>1.4800000000000001E-2</v>
       </c>
@@ -9415,71 +8931,71 @@
     </row>
     <row r="17" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>12.562782530851701</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14">
         <v>12.562782530851701</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="13"/>
       <c r="F17">
         <v>12.562782530851701</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="13"/>
       <c r="H17">
         <v>12.562782530851701</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="13"/>
       <c r="J17">
         <v>12.562782530851701</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17">
         <v>13.5762885399675</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="13"/>
       <c r="O17">
         <v>13.5762885399675</v>
       </c>
-      <c r="P17" s="17"/>
+      <c r="P17" s="13"/>
       <c r="Q17">
         <v>13.5762885399675</v>
       </c>
-      <c r="R17" s="17"/>
+      <c r="R17" s="13"/>
       <c r="S17">
         <v>13.5762885399675</v>
       </c>
-      <c r="T17" s="17"/>
+      <c r="T17" s="13"/>
       <c r="U17">
         <v>13.5762885399675</v>
       </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
       <c r="X17">
         <v>12.566341826481899</v>
       </c>
-      <c r="Y17" s="17"/>
+      <c r="Y17" s="13"/>
       <c r="Z17">
         <v>12.566433292123</v>
       </c>
-      <c r="AA17" s="17"/>
+      <c r="AA17" s="13"/>
       <c r="AB17">
         <v>12.566433292123</v>
       </c>
-      <c r="AC17" s="17"/>
+      <c r="AC17" s="13"/>
       <c r="AD17">
         <v>12.566433292123</v>
       </c>
-      <c r="AE17" s="17"/>
+      <c r="AE17" s="13"/>
       <c r="AF17">
         <v>12.566433292123</v>
       </c>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
       <c r="AI17">
         <v>12.5599506575875</v>
       </c>
@@ -9511,71 +9027,71 @@
     </row>
     <row r="18" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>12.5</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14">
         <v>12.5</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="15"/>
       <c r="F18">
         <v>12.5</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="13"/>
       <c r="H18">
         <v>12.5</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="13"/>
       <c r="J18">
         <v>12.5</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="M18">
         <v>13.5</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="13"/>
       <c r="O18">
         <v>13.5</v>
       </c>
-      <c r="P18" s="17"/>
+      <c r="P18" s="13"/>
       <c r="Q18">
         <v>13.5</v>
       </c>
-      <c r="R18" s="17"/>
+      <c r="R18" s="13"/>
       <c r="S18">
         <v>13.5</v>
       </c>
-      <c r="T18" s="17"/>
+      <c r="T18" s="13"/>
       <c r="U18">
         <v>13.5</v>
       </c>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
       <c r="X18">
         <v>12.5</v>
       </c>
-      <c r="Y18" s="17"/>
+      <c r="Y18" s="13"/>
       <c r="Z18">
         <v>12.5</v>
       </c>
-      <c r="AA18" s="17"/>
+      <c r="AA18" s="13"/>
       <c r="AB18">
         <v>12.5</v>
       </c>
-      <c r="AC18" s="17"/>
+      <c r="AC18" s="13"/>
       <c r="AD18">
         <v>12.5</v>
       </c>
-      <c r="AE18" s="17"/>
+      <c r="AE18" s="13"/>
       <c r="AF18">
         <v>12.5</v>
       </c>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
       <c r="AI18">
         <v>12.5</v>
       </c>
@@ -9606,24 +9122,24 @@
       <c r="AV18" s="4"/>
     </row>
     <row r="19" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
+      <c r="C19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
       <c r="AJ19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AN19" s="4"/>
@@ -9633,27 +9149,27 @@
       <c r="AV19" s="4"/>
     </row>
     <row r="20" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>2035</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
+      <c r="A20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
       <c r="AJ20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AN20" s="4"/>
@@ -9664,101 +9180,101 @@
     </row>
     <row r="21" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="13">
         <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="13">
         <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="13">
         <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" s="17">
-        <v>0</v>
-      </c>
-      <c r="L21" s="17"/>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13"/>
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="13">
         <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="13">
         <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="13">
         <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="13">
         <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21" s="17">
-        <v>0</v>
-      </c>
-      <c r="W21" s="17"/>
+      <c r="V21" s="13">
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21" s="17">
+      <c r="Y21" s="13">
         <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
-      <c r="AA21" s="17">
+      <c r="AA21" s="13">
         <v>0</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
-      <c r="AC21" s="17">
+      <c r="AC21" s="13">
         <v>0</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
-      <c r="AE21" s="17">
+      <c r="AE21" s="13">
         <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="17"/>
+      <c r="AG21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="13"/>
       <c r="AI21">
         <v>0</v>
       </c>
@@ -9804,101 +9320,101 @@
     </row>
     <row r="22" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="13">
         <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="13">
         <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" s="17">
-        <v>0</v>
-      </c>
-      <c r="L22" s="17"/>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13"/>
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="13">
         <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="13">
         <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="13">
         <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="13">
         <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22" s="17">
-        <v>0</v>
-      </c>
-      <c r="W22" s="17"/>
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22" s="17">
+      <c r="Y22" s="13">
         <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
-      <c r="AA22" s="17">
+      <c r="AA22" s="13">
         <v>0</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
-      <c r="AC22" s="17">
+      <c r="AC22" s="13">
         <v>0</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
-      <c r="AE22" s="17">
+      <c r="AE22" s="13">
         <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="17"/>
+      <c r="AG22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="13"/>
       <c r="AI22">
         <v>0</v>
       </c>
@@ -9944,101 +9460,101 @@
     </row>
     <row r="23" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="B23">
         <v>3.43103612921474</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="13">
         <v>0.25415082438627701</v>
       </c>
       <c r="D23">
         <v>3.4378516413287001</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="13">
         <v>0.254655677135459</v>
       </c>
       <c r="F23">
         <v>3.4199927227785101</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="13">
         <v>0.25333279427988897</v>
       </c>
       <c r="H23">
         <v>3.4310361099906999</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="13">
         <v>0.25415082296227298</v>
       </c>
       <c r="J23">
         <v>3.4367533887971402</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="13">
         <v>0.23143120463280401</v>
       </c>
-      <c r="L23" s="17"/>
+      <c r="L23" s="13"/>
       <c r="M23">
         <v>3.4367453363249099</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="13">
         <v>0.22911635575499401</v>
       </c>
       <c r="O23">
         <v>3.44102090761357</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="13">
         <v>0.22940139384090399</v>
       </c>
       <c r="Q23">
         <v>3.4290130754915902</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="13">
         <v>0.22860087169943899</v>
       </c>
       <c r="S23">
         <v>3.43674306990175</v>
       </c>
-      <c r="T23" s="17">
+      <c r="T23" s="13">
         <v>0.22911620466011601</v>
       </c>
       <c r="U23">
         <v>3.4346971627941199</v>
       </c>
-      <c r="V23" s="17">
+      <c r="V23" s="13">
         <v>0.23687566639959401</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="13"/>
       <c r="X23">
         <v>3.0804322862526501</v>
       </c>
-      <c r="Y23" s="17">
+      <c r="Y23" s="13">
         <v>0.22818016935204799</v>
       </c>
       <c r="Z23">
         <v>3.0874960696343599</v>
       </c>
-      <c r="AA23" s="17">
+      <c r="AA23" s="13">
         <v>0.228703412565508</v>
       </c>
       <c r="AB23">
         <v>3.0713215240604099</v>
       </c>
-      <c r="AC23" s="17">
+      <c r="AC23" s="13">
         <v>0.227505298078549</v>
       </c>
       <c r="AD23">
         <v>3.0804458754442798</v>
       </c>
-      <c r="AE23" s="17">
+      <c r="AE23" s="13">
         <v>0.228181175958835</v>
       </c>
       <c r="AF23">
         <v>3.0842900093844698</v>
       </c>
-      <c r="AG23" s="17">
+      <c r="AG23" s="13">
         <v>0.20769629692824701</v>
       </c>
-      <c r="AH23" s="17"/>
+      <c r="AH23" s="13"/>
       <c r="AI23">
         <v>3.42761125788468</v>
       </c>
@@ -10084,101 +9600,101 @@
     </row>
     <row r="24" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="13">
         <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="13">
         <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="13">
         <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" s="17">
-        <v>0</v>
-      </c>
-      <c r="L24" s="17"/>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13"/>
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="13">
         <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24" s="13">
         <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="13">
         <v>0</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24" s="17">
+      <c r="T24" s="13">
         <v>0</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24" s="17">
-        <v>0</v>
-      </c>
-      <c r="W24" s="17"/>
+      <c r="V24" s="13">
+        <v>0</v>
+      </c>
+      <c r="W24" s="13"/>
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24" s="17">
+      <c r="Y24" s="13">
         <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
-      <c r="AA24" s="17">
+      <c r="AA24" s="13">
         <v>0</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
-      <c r="AC24" s="17">
+      <c r="AC24" s="13">
         <v>0</v>
       </c>
       <c r="AD24">
         <v>0</v>
       </c>
-      <c r="AE24" s="17">
+      <c r="AE24" s="13">
         <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="17"/>
+      <c r="AG24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="13"/>
       <c r="AI24">
         <v>0</v>
       </c>
@@ -10224,101 +9740,101 @@
     </row>
     <row r="25" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B25">
         <v>5.6940003739091999E-2</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="13">
         <v>4.2177780547475504E-3</v>
       </c>
       <c r="D25">
         <v>5.6940002948418299E-2</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="13">
         <v>4.2177779961791303E-3</v>
       </c>
       <c r="F25">
         <v>5.6940007557673498E-2</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="13">
         <v>4.2177783376054403E-3</v>
       </c>
       <c r="H25">
         <v>5.6940005174671598E-2</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="13">
         <v>4.2177781610867804E-3</v>
       </c>
       <c r="J25">
         <v>5.6940005690177202E-2</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="13">
         <v>3.8343438175203501E-3</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="13"/>
       <c r="M25">
         <v>5.6940123994465103E-2</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="13">
         <v>3.7960082662976701E-3</v>
       </c>
       <c r="O25">
         <v>5.6940005195828203E-2</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="13">
         <v>3.7960003463885401E-3</v>
       </c>
       <c r="Q25">
         <v>5.6940004167669998E-2</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="13">
         <v>3.7960002778446599E-3</v>
       </c>
       <c r="S25">
         <v>5.6940124323436099E-2</v>
       </c>
-      <c r="T25" s="17">
+      <c r="T25" s="13">
         <v>3.79600828822907E-3</v>
       </c>
       <c r="U25">
         <v>5.6940007800941397E-2</v>
       </c>
-      <c r="V25" s="17">
+      <c r="V25" s="13">
         <v>3.9268970897200902E-3</v>
       </c>
-      <c r="W25" s="17"/>
+      <c r="W25" s="13"/>
       <c r="X25">
         <v>5.6940002623379303E-2</v>
       </c>
-      <c r="Y25" s="17">
+      <c r="Y25" s="13">
         <v>4.2177779721021599E-3</v>
       </c>
       <c r="Z25">
         <v>5.69400149309989E-2</v>
       </c>
-      <c r="AA25" s="17">
+      <c r="AA25" s="13">
         <v>4.2177788837776901E-3</v>
       </c>
       <c r="AB25">
         <v>5.6940002775588298E-2</v>
       </c>
-      <c r="AC25" s="17">
+      <c r="AC25" s="13">
         <v>4.2177779833769101E-3</v>
       </c>
       <c r="AD25">
         <v>5.6940000665169098E-2</v>
       </c>
-      <c r="AE25" s="17">
+      <c r="AE25" s="13">
         <v>4.2177778270495597E-3</v>
       </c>
       <c r="AF25">
         <v>5.6940018357643299E-2</v>
       </c>
-      <c r="AG25" s="17">
+      <c r="AG25" s="13">
         <v>3.8343446705483598E-3</v>
       </c>
-      <c r="AH25" s="17"/>
+      <c r="AH25" s="13"/>
       <c r="AI25">
         <v>5.6940017194229899E-2</v>
       </c>
@@ -10364,101 +9880,101 @@
     </row>
     <row r="26" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="B26">
         <v>1.6290546288705501</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="13">
         <v>0.12067071324967001</v>
       </c>
       <c r="D26">
         <v>1.6293530076689799</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="13">
         <v>0.12069281538288699</v>
       </c>
       <c r="F26">
         <v>1.6290446605070501</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="13">
         <v>0.120669974852374</v>
       </c>
       <c r="H26">
         <v>1.6286570126657001</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="13">
         <v>0.12064126019745899</v>
       </c>
       <c r="J26">
         <v>1.6263234922184699</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="13">
         <v>0.109516733482725</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="13"/>
       <c r="M26">
         <v>1.62536739866544</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="13">
         <v>0.10835782657769601</v>
       </c>
       <c r="O26">
         <v>1.6248452077134601</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="13">
         <v>0.108323013847564</v>
       </c>
       <c r="Q26">
         <v>1.6235226391647299</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="13">
         <v>0.108234842610982</v>
       </c>
       <c r="S26">
         <v>1.6243781033874201</v>
       </c>
-      <c r="T26" s="17">
+      <c r="T26" s="13">
         <v>0.10829187355916101</v>
       </c>
       <c r="U26">
         <v>1.6253684558819801</v>
       </c>
-      <c r="V26" s="17">
+      <c r="V26" s="13">
         <v>0.11209437626772301</v>
       </c>
-      <c r="W26" s="17"/>
+      <c r="W26" s="13"/>
       <c r="X26">
         <v>1.62681348388517</v>
       </c>
-      <c r="Y26" s="17">
+      <c r="Y26" s="13">
         <v>0.120504702510013</v>
       </c>
       <c r="Z26">
         <v>1.62727443292018</v>
       </c>
-      <c r="AA26" s="17">
+      <c r="AA26" s="13">
         <v>0.120538846882976</v>
       </c>
       <c r="AB26">
         <v>1.62737347651258</v>
       </c>
-      <c r="AC26" s="17">
+      <c r="AC26" s="13">
         <v>0.120546183445376</v>
       </c>
       <c r="AD26">
         <v>1.6264346153496301</v>
       </c>
-      <c r="AE26" s="17">
+      <c r="AE26" s="13">
         <v>0.120476638174046</v>
       </c>
       <c r="AF26">
         <v>1.6226094911470601</v>
       </c>
-      <c r="AG26" s="17">
+      <c r="AG26" s="13">
         <v>0.109266632400475</v>
       </c>
-      <c r="AH26" s="17"/>
+      <c r="AH26" s="13"/>
       <c r="AI26">
         <v>1.62910148686918</v>
       </c>
@@ -10504,101 +10020,101 @@
     </row>
     <row r="27" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B27">
         <v>1.52687689764422</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="13">
         <v>0.11310199241809001</v>
       </c>
       <c r="D27">
         <v>1.5274096069438201</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="13">
         <v>0.113141452366209</v>
       </c>
       <c r="F27">
         <v>1.5264559122106001</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="13">
         <v>0.113070808311896</v>
       </c>
       <c r="H27">
         <v>1.5268769187407001</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="13">
         <v>0.113101993980793</v>
       </c>
       <c r="J27">
         <v>1.5219135346938899</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="13">
         <v>0.102485759912046</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="13"/>
       <c r="M27">
         <v>1.5215420524955701</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="13">
         <v>0.101436136833038</v>
       </c>
       <c r="O27">
         <v>1.5217536949691699</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="13">
         <v>0.101450246331278</v>
       </c>
       <c r="Q27">
         <v>1.5200504625501601</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="13">
         <v>0.10133669750334399</v>
       </c>
       <c r="S27">
         <v>1.5215420754974001</v>
       </c>
-      <c r="T27" s="17">
+      <c r="T27" s="13">
         <v>0.101436138366493</v>
       </c>
       <c r="U27">
         <v>1.5229900946913499</v>
       </c>
-      <c r="V27" s="17">
+      <c r="V27" s="13">
         <v>0.105033799633886</v>
       </c>
-      <c r="W27" s="17"/>
+      <c r="W27" s="13"/>
       <c r="X27">
         <v>1.52252219898192</v>
       </c>
-      <c r="Y27" s="17">
+      <c r="Y27" s="13">
         <v>0.112779422146809</v>
       </c>
       <c r="Z27">
         <v>1.5229933279718</v>
       </c>
-      <c r="AA27" s="17">
+      <c r="AA27" s="13">
         <v>0.112814320590503</v>
       </c>
       <c r="AB27">
         <v>1.52151041493954</v>
       </c>
-      <c r="AC27" s="17">
+      <c r="AC27" s="13">
         <v>0.112704475180706</v>
       </c>
       <c r="AD27">
         <v>1.5225238523750699</v>
       </c>
-      <c r="AE27" s="17">
+      <c r="AE27" s="13">
         <v>0.112779544620375</v>
       </c>
       <c r="AF27">
         <v>1.5171720152130601</v>
       </c>
-      <c r="AG27" s="17">
+      <c r="AG27" s="13">
         <v>0.102166465670913</v>
       </c>
-      <c r="AH27" s="17"/>
+      <c r="AH27" s="13"/>
       <c r="AI27">
         <v>1.5282545331072099</v>
       </c>
@@ -10644,101 +10160,101 @@
     </row>
     <row r="28" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>4.2459666648768799</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="13">
         <v>0.31451604925013898</v>
       </c>
       <c r="D28">
         <v>4.3482377639185898</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="13">
         <v>0.322091686216191</v>
       </c>
       <c r="F28">
         <v>4.5301018663595496</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="13">
         <v>0.33556310121181798</v>
       </c>
       <c r="H28">
         <v>4.2464678534018301</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="13">
         <v>0.314553174326061</v>
       </c>
       <c r="J28">
         <v>5.2457030671804104</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="13">
         <v>0.35324599778992599</v>
       </c>
-      <c r="L28" s="17"/>
+      <c r="L28" s="13"/>
       <c r="M28">
         <v>5.34210974418483</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="13">
         <v>0.356140649612322</v>
       </c>
       <c r="O28">
         <v>5.4637836300259996</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="13">
         <v>0.36425224200173301</v>
       </c>
       <c r="Q28">
         <v>5.6827605589417702</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="13">
         <v>0.37885070392945103</v>
       </c>
       <c r="S28">
         <v>5.3415726345557797</v>
       </c>
-      <c r="T28" s="17">
+      <c r="T28" s="13">
         <v>0.35610484230371903</v>
       </c>
       <c r="U28">
         <v>4.9968033490886503</v>
       </c>
-      <c r="V28" s="17">
+      <c r="V28" s="13">
         <v>0.34460712752335498</v>
       </c>
-      <c r="W28" s="17"/>
+      <c r="W28" s="13"/>
       <c r="X28">
         <v>4.5637079434366399</v>
       </c>
-      <c r="Y28" s="17">
+      <c r="Y28" s="13">
         <v>0.33805244025456599</v>
       </c>
       <c r="Z28">
         <v>4.6699840815012497</v>
       </c>
-      <c r="AA28" s="17">
+      <c r="AA28" s="13">
         <v>0.34592474677787</v>
       </c>
       <c r="AB28">
         <v>4.8350541629752497</v>
       </c>
-      <c r="AC28" s="17">
+      <c r="AC28" s="13">
         <v>0.35815216022038798</v>
       </c>
       <c r="AD28">
         <v>4.5632297593435398</v>
       </c>
-      <c r="AE28" s="17">
+      <c r="AE28" s="13">
         <v>0.33801701921063199</v>
       </c>
       <c r="AF28">
         <v>5.5104301563025304</v>
       </c>
-      <c r="AG28" s="17">
+      <c r="AG28" s="13">
         <v>0.37107273779814998</v>
       </c>
-      <c r="AH28" s="17"/>
+      <c r="AH28" s="13"/>
       <c r="AI28">
         <v>4.18313222705663</v>
       </c>
@@ -10784,101 +10300,101 @@
     </row>
     <row r="29" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2.4551065272068899</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="13">
         <v>0.18185974275606501</v>
       </c>
       <c r="D29">
         <v>2.34797589716996</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="13">
         <v>0.173924140531108</v>
       </c>
       <c r="F29">
         <v>2.17667065582518</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="13">
         <v>0.161234863394458</v>
       </c>
       <c r="H29">
         <v>2.45494553434746</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="13">
         <v>0.18184781735907099</v>
       </c>
       <c r="J29">
         <v>2.83249598232918</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="13">
         <v>0.19074047019051699</v>
       </c>
-      <c r="L29" s="17"/>
+      <c r="L29" s="13"/>
       <c r="M29">
         <v>2.89126598880513</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="13">
         <v>0.192751065920341</v>
       </c>
       <c r="O29">
         <v>2.7670659058776201</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="13">
         <v>0.184471060391841</v>
       </c>
       <c r="Q29">
         <v>2.5500550456678299</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="13">
         <v>0.17000366971118899</v>
       </c>
       <c r="S29">
         <v>2.8923392230356799</v>
       </c>
-      <c r="T29" s="17">
+      <c r="T29" s="13">
         <v>0.19282261486904501</v>
       </c>
       <c r="U29">
         <v>2.72514493456337</v>
       </c>
-      <c r="V29" s="17">
+      <c r="V29" s="13">
         <v>0.18794102996988701</v>
       </c>
-      <c r="W29" s="17"/>
+      <c r="W29" s="13"/>
       <c r="X29">
         <v>2.5048563831664898</v>
       </c>
-      <c r="Y29" s="17">
+      <c r="Y29" s="13">
         <v>0.185544917271592</v>
       </c>
       <c r="Z29">
         <v>2.3940120246985801</v>
       </c>
-      <c r="AA29" s="17">
+      <c r="AA29" s="13">
         <v>0.17733422405174601</v>
       </c>
       <c r="AB29">
         <v>2.23717216563232</v>
       </c>
-      <c r="AC29" s="17">
+      <c r="AC29" s="13">
         <v>0.16571645671350499</v>
       </c>
       <c r="AD29">
         <v>2.5050169632652</v>
       </c>
-      <c r="AE29" s="17">
+      <c r="AE29" s="13">
         <v>0.18555681209371799</v>
       </c>
       <c r="AF29">
         <v>2.9498742607898101</v>
       </c>
-      <c r="AG29" s="17">
+      <c r="AG29" s="13">
         <v>0.198644731366317</v>
       </c>
-      <c r="AH29" s="17"/>
+      <c r="AH29" s="13"/>
       <c r="AI29">
         <v>2.5164971069556001</v>
       </c>
@@ -10924,101 +10440,101 @@
     </row>
     <row r="30" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>0.24535008</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="D30">
         <v>0.24535008</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="F30">
         <v>0.24535008</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="H30">
         <v>0.24535008</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="J30">
         <v>0.24535008</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="13">
         <v>1.6521890909090901E-2</v>
       </c>
-      <c r="L30" s="17"/>
+      <c r="L30" s="13"/>
       <c r="M30">
         <v>0.24535008</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="13">
         <v>1.6356671999999899E-2</v>
       </c>
       <c r="O30">
         <v>0.24535008</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="13">
         <v>1.6356671999999899E-2</v>
       </c>
       <c r="Q30">
         <v>0.24535008</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="13">
         <v>1.6356671999999899E-2</v>
       </c>
       <c r="S30">
         <v>0.24535008</v>
       </c>
-      <c r="T30" s="17">
+      <c r="T30" s="13">
         <v>1.6356671999999899E-2</v>
       </c>
       <c r="U30">
         <v>0.24535008</v>
       </c>
-      <c r="V30" s="17">
+      <c r="V30" s="13">
         <v>1.6920695172413701E-2</v>
       </c>
-      <c r="W30" s="17"/>
+      <c r="W30" s="13"/>
       <c r="X30">
         <v>0.24535008</v>
       </c>
-      <c r="Y30" s="17">
+      <c r="Y30" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="Z30">
         <v>0.24535008</v>
       </c>
-      <c r="AA30" s="17">
+      <c r="AA30" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="AB30">
         <v>0.24535008</v>
       </c>
-      <c r="AC30" s="17">
+      <c r="AC30" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="AD30">
         <v>0.24535008</v>
       </c>
-      <c r="AE30" s="17">
+      <c r="AE30" s="13">
         <v>1.8174079999999902E-2</v>
       </c>
       <c r="AF30">
         <v>0.24535008</v>
       </c>
-      <c r="AG30" s="17">
+      <c r="AG30" s="13">
         <v>1.6521890909090901E-2</v>
       </c>
-      <c r="AH30" s="17"/>
+      <c r="AH30" s="13"/>
       <c r="AI30">
         <v>0.24535008</v>
       </c>
@@ -11064,56 +10580,56 @@
     </row>
     <row r="31" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="17">
+        <v>29</v>
+      </c>
+      <c r="C31" s="13">
         <v>0.49637579200620502</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="13">
         <v>0.49601582674729899</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="13">
         <v>0.49679796460627601</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="13">
         <v>0.49640099168513202</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="13">
         <v>0.54398646798044303</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="N31" s="17">
+      <c r="L31" s="13"/>
+      <c r="N31" s="13">
         <v>0.54889171553266403</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="13">
         <v>0.54872330239357503</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="13">
         <v>0.54885437364064005</v>
       </c>
-      <c r="T31" s="17">
+      <c r="T31" s="13">
         <v>0.54892745717276403</v>
       </c>
-      <c r="V31" s="17">
+      <c r="V31" s="13">
         <v>0.53254815749324302</v>
       </c>
-      <c r="W31" s="17"/>
-      <c r="Y31" s="17">
+      <c r="W31" s="13"/>
+      <c r="Y31" s="13">
         <v>0.52359735752615799</v>
       </c>
-      <c r="AA31" s="17">
+      <c r="AA31" s="13">
         <v>0.52325897082961703</v>
       </c>
-      <c r="AC31" s="17">
+      <c r="AC31" s="13">
         <v>0.52386861693389397</v>
       </c>
-      <c r="AE31" s="17">
+      <c r="AE31" s="13">
         <v>0.52357383130434998</v>
       </c>
-      <c r="AG31" s="17">
+      <c r="AG31" s="13">
         <v>0.56971746916446697</v>
       </c>
-      <c r="AH31" s="17"/>
+      <c r="AH31" s="13"/>
       <c r="AJ31" s="4">
         <v>0.49626883955646101</v>
       </c>
@@ -11138,56 +10654,56 @@
     </row>
     <row r="32" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="17">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13">
         <v>0.74832257767396604</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="13">
         <v>0.74802417449639602</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="13">
         <v>0.74871282777054704</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="13">
         <v>0.74831832586338498</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="13">
         <v>0.77251085228430605</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="N32" s="17">
+      <c r="L32" s="13"/>
+      <c r="N32" s="13">
         <v>0.77504235094339902</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="13">
         <v>0.77485323457241795</v>
       </c>
-      <c r="R32" s="17">
+      <c r="R32" s="13">
         <v>0.77478258575496695</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32" s="13">
         <v>0.77501214109841898</v>
       </c>
-      <c r="V32" s="17">
+      <c r="V32" s="13">
         <v>0.76659702856726597</v>
       </c>
-      <c r="W32" s="17"/>
-      <c r="Y32" s="17">
+      <c r="W32" s="13"/>
+      <c r="Y32" s="13">
         <v>0.77505556218298</v>
       </c>
-      <c r="AA32" s="17">
+      <c r="AA32" s="13">
         <v>0.77478621830309702</v>
       </c>
-      <c r="AC32" s="17">
+      <c r="AC32" s="13">
         <v>0.77529335555997703</v>
       </c>
-      <c r="AE32" s="17">
+      <c r="AE32" s="13">
         <v>0.77500409409877302</v>
       </c>
-      <c r="AG32" s="17">
+      <c r="AG32" s="13">
         <v>0.79767245814494703</v>
       </c>
-      <c r="AH32" s="17"/>
+      <c r="AH32" s="13"/>
       <c r="AJ32" s="4">
         <v>0.74832114325841703</v>
       </c>
@@ -11212,71 +10728,71 @@
     </row>
     <row r="33" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="13"/>
       <c r="D33">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="13"/>
       <c r="F33">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="13"/>
       <c r="H33">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="13"/>
       <c r="J33">
         <v>0.11070000000000001</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
       <c r="M33">
         <v>0.1139</v>
       </c>
-      <c r="N33" s="17"/>
+      <c r="N33" s="13"/>
       <c r="O33">
         <v>0.11070000000000001</v>
       </c>
-      <c r="P33" s="17"/>
+      <c r="P33" s="13"/>
       <c r="Q33">
         <v>0.1192</v>
       </c>
-      <c r="R33" s="17"/>
+      <c r="R33" s="13"/>
       <c r="S33">
         <v>0.1144</v>
       </c>
-      <c r="T33" s="17"/>
+      <c r="T33" s="13"/>
       <c r="U33">
         <v>9.64E-2</v>
       </c>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
       <c r="X33">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="Y33" s="17"/>
+      <c r="Y33" s="13"/>
       <c r="Z33">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="AA33" s="17"/>
+      <c r="AA33" s="13"/>
       <c r="AB33">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="AC33" s="17"/>
+      <c r="AC33" s="13"/>
       <c r="AD33">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="AE33" s="17"/>
+      <c r="AE33" s="13"/>
       <c r="AF33">
         <v>0.13039999999999999</v>
       </c>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
       <c r="AI33">
         <v>5.4300000000000001E-2</v>
       </c>
@@ -11308,71 +10824,71 @@
     </row>
     <row r="34" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="13"/>
       <c r="D34">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="13"/>
       <c r="F34">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="13"/>
       <c r="H34">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="I34" s="17"/>
+      <c r="I34" s="13"/>
       <c r="J34">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
       <c r="M34">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="N34" s="17"/>
+      <c r="N34" s="13"/>
       <c r="O34">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="P34" s="17"/>
+      <c r="P34" s="13"/>
       <c r="Q34">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="R34" s="17"/>
+      <c r="R34" s="13"/>
       <c r="S34">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="T34" s="17"/>
+      <c r="T34" s="13"/>
       <c r="U34">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
       <c r="X34">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="Y34" s="17"/>
+      <c r="Y34" s="13"/>
       <c r="Z34">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="AA34" s="17"/>
+      <c r="AA34" s="13"/>
       <c r="AB34">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="AC34" s="17"/>
+      <c r="AC34" s="13"/>
       <c r="AD34">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="AE34" s="17"/>
+      <c r="AE34" s="13"/>
       <c r="AF34">
         <v>0.1075</v>
       </c>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
       <c r="AI34">
         <v>4.9200000000000001E-2</v>
       </c>
@@ -11404,71 +10920,71 @@
     </row>
     <row r="35" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>13.5903309315523</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="13"/>
       <c r="D35">
         <v>13.5931179999784</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="13"/>
       <c r="F35">
         <v>13.584555905238499</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="13"/>
       <c r="H35">
         <v>13.590273514321</v>
       </c>
-      <c r="I35" s="17"/>
+      <c r="I35" s="13"/>
       <c r="J35">
         <v>14.965479550909199</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
       <c r="M35">
         <v>15.119320724470301</v>
       </c>
-      <c r="N35" s="17"/>
+      <c r="N35" s="13"/>
       <c r="O35">
         <v>15.1207594313956</v>
       </c>
-      <c r="P35" s="17"/>
+      <c r="P35" s="13"/>
       <c r="Q35">
         <v>15.1076918659837</v>
       </c>
-      <c r="R35" s="17"/>
+      <c r="R35" s="13"/>
       <c r="S35">
         <v>15.1188653107014</v>
       </c>
-      <c r="T35" s="17"/>
+      <c r="T35" s="13"/>
       <c r="U35">
         <v>14.607294084820399</v>
       </c>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
       <c r="X35">
         <v>13.6006223783462</v>
       </c>
-      <c r="Y35" s="17"/>
+      <c r="Y35" s="13"/>
       <c r="Z35">
         <v>13.604050031657099</v>
       </c>
-      <c r="AA35" s="17"/>
+      <c r="AA35" s="13"/>
       <c r="AB35">
         <v>13.5947218268957</v>
       </c>
-      <c r="AC35" s="17"/>
+      <c r="AC35" s="13"/>
       <c r="AD35">
         <v>13.5999411464428</v>
       </c>
-      <c r="AE35" s="17"/>
+      <c r="AE35" s="13"/>
       <c r="AF35">
         <v>14.986666031194501</v>
       </c>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
       <c r="AI35">
         <v>13.5868867090675</v>
       </c>
@@ -11500,68 +11016,68 @@
     </row>
     <row r="36" spans="1:48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>13.5</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="13"/>
       <c r="D36">
         <v>13.5</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="13"/>
       <c r="F36">
         <v>13.5</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="13"/>
       <c r="H36">
         <v>13.5</v>
       </c>
-      <c r="I36" s="17"/>
+      <c r="I36" s="13"/>
       <c r="J36">
         <v>14.85</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
       <c r="M36">
         <v>15</v>
       </c>
-      <c r="N36" s="17"/>
+      <c r="N36" s="13"/>
       <c r="O36">
         <v>15</v>
       </c>
-      <c r="P36" s="17"/>
+      <c r="P36" s="13"/>
       <c r="Q36">
         <v>15</v>
       </c>
-      <c r="R36" s="17"/>
-      <c r="T36" s="17"/>
+      <c r="R36" s="13"/>
+      <c r="T36" s="13"/>
       <c r="U36">
         <v>14.5</v>
       </c>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
       <c r="X36">
         <v>13.5</v>
       </c>
-      <c r="Y36" s="17"/>
+      <c r="Y36" s="13"/>
       <c r="Z36">
         <v>13.5</v>
       </c>
-      <c r="AA36" s="17"/>
+      <c r="AA36" s="13"/>
       <c r="AB36">
         <v>13.5</v>
       </c>
-      <c r="AC36" s="17"/>
+      <c r="AC36" s="13"/>
       <c r="AD36">
         <v>13.5</v>
       </c>
-      <c r="AE36" s="17"/>
+      <c r="AE36" s="13"/>
       <c r="AF36">
         <v>14.85</v>
       </c>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
       <c r="AI36">
         <v>13.5</v>
       </c>
@@ -11592,31 +11108,31 @@
       <c r="AV36" s="4"/>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="AI39" s="17"/>
-      <c r="AJ39" s="17"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="AI40" s="17"/>
-      <c r="AJ40" s="17"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="AI42" s="17"/>
-      <c r="AJ42" s="17"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="AI43" s="17"/>
+      <c r="AI43" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
